--- a/outputs/per_model_excel/Llama-Instruct_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Llama-Instruct_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -501,12 +516,21 @@
         <v>-27.94</v>
       </c>
       <c r="F2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-28.33</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.5417</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.6052999999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>11.74</v>
       </c>
     </row>
@@ -529,12 +553,21 @@
         <v>-0.01</v>
       </c>
       <c r="F3" t="n">
+        <v>129.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>129.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.5744</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.5746</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -557,12 +590,21 @@
         <v>-99.14</v>
       </c>
       <c r="F4" t="n">
+        <v>5431.52</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-99.63</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.4568</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.6367</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>39.37</v>
       </c>
     </row>
@@ -585,12 +627,21 @@
         <v>-0.04</v>
       </c>
       <c r="F5" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.6987</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.699</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -613,12 +664,21 @@
         <v>-15.1</v>
       </c>
       <c r="F6" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-11.87</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.6318</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.6477000000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -641,12 +701,21 @@
         <v>-14.57</v>
       </c>
       <c r="F7" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-12.48</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.6247</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.6487000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>3.84</v>
       </c>
     </row>
@@ -669,12 +738,21 @@
         <v>-99.38</v>
       </c>
       <c r="F8" t="n">
+        <v>63523.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>743.23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-98.83</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.366</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.3784</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -697,12 +775,21 @@
         <v>-0</v>
       </c>
       <c r="F9" t="n">
+        <v>9723.690000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9724.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.3573</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.3568</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>-0.14</v>
       </c>
     </row>

--- a/outputs/per_model_excel/Llama-Instruct_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Llama-Instruct_finetuning_summary.xlsx
@@ -547,28 +547,28 @@
         <v>89.91</v>
       </c>
       <c r="D3" t="n">
-        <v>89.90000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01</v>
+        <v>-85.34</v>
       </c>
       <c r="F3" t="n">
         <v>129.89</v>
       </c>
       <c r="G3" t="n">
-        <v>129.89</v>
+        <v>17.33</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>-86.66</v>
       </c>
       <c r="I3" t="n">
         <v>0.5744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5746</v>
+        <v>0.6446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="4">
@@ -769,28 +769,28 @@
         <v>12573.88</v>
       </c>
       <c r="D9" t="n">
-        <v>12573.76</v>
+        <v>24719.39</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>96.59</v>
       </c>
       <c r="F9" t="n">
         <v>9723.690000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>9724.01</v>
+        <v>21023.27</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>116.21</v>
       </c>
       <c r="I9" t="n">
         <v>0.3573</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3568</v>
+        <v>0.3605</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.14</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +860,10 @@
         <v>0.6364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6364</v>
+        <v>0.7927</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="4">
@@ -956,10 +956,10 @@
         <v>0.4511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4505</v>
+        <v>0.4385</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0126</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1029,10 @@
         <v>0.6991000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.7361</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="4">
@@ -1125,10 +1125,10 @@
         <v>0.5087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5098</v>
+        <v>0.5147</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0011</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         <v>0.6199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6201</v>
+        <v>0.7076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="4">
@@ -1294,10 +1294,10 @@
         <v>0.2579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2579</v>
+        <v>0.2607</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1367,10 @@
         <v>0.6756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.678</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0024</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="4">
@@ -1463,10 +1463,10 @@
         <v>0.4838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4815</v>
+        <v>0.5193</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0023</v>
+        <v>0.0355</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1536,10 @@
         <v>0.6014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5997</v>
+        <v>0.7104</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0017</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="4">
@@ -1632,10 +1632,10 @@
         <v>0.2517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2513</v>
+        <v>0.2609</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0004</v>
+        <v>0.0092</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1705,10 @@
         <v>0.4445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4445</v>
+        <v>0.4684</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="4">
@@ -1801,10 +1801,10 @@
         <v>0.2637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2628</v>
+        <v>0.2474</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0009</v>
+        <v>-0.0163</v>
       </c>
     </row>
   </sheetData>
@@ -1874,10 +1874,10 @@
         <v>0.344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.344</v>
+        <v>0.39</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="4">
@@ -1970,10 +1970,10 @@
         <v>0.284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284</v>
+        <v>0.282</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
     </row>
   </sheetData>
